--- a/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 250/S&P500_returns_compared_semester.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 250/S&P500_returns_compared_semester.xlsx
@@ -501,13 +501,13 @@
         <v>0.06475160574547126</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06934636370804091</v>
+        <v>0.06981456006938053</v>
       </c>
       <c r="H2" t="n">
-        <v>7.095975319331771</v>
+        <v>7.819040571458529</v>
       </c>
       <c r="I2" t="n">
-        <v>-22.50247959970719</v>
+        <v>-8.241209273008328</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.06840507148266159</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07075426032207624</v>
+        <v>0.07418709268332681</v>
       </c>
       <c r="H3" t="n">
-        <v>3.434231977975628</v>
+        <v>8.45262065420218</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.04489303740573931</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.03672003724561585</v>
+        <v>-0.03662410462721217</v>
       </c>
       <c r="H4" t="n">
-        <v>-18.20549606892624</v>
+        <v>18.41918759872105</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.02707184252639069</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.03700692630991147</v>
+        <v>-0.02827920324327398</v>
       </c>
       <c r="H5" t="n">
-        <v>36.69895676231003</v>
+        <v>-4.459839464958129</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.1060411983308413</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.09382074449199365</v>
+        <v>-0.09375036274816409</v>
       </c>
       <c r="H6" t="n">
-        <v>-11.52425098094485</v>
+        <v>11.59062305607925</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.09137116790774705</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.09911866407157589</v>
+        <v>-0.0905156173356471</v>
       </c>
       <c r="H7" t="n">
-        <v>8.479147570545569</v>
+        <v>0.9363463242187672</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.3669045294234091</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.353810382599929</v>
+        <v>-0.3522130331728875</v>
       </c>
       <c r="H8" t="n">
-        <v>-3.568815801772089</v>
+        <v>4.004174130422792</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.3900907247280979</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3649654030199208</v>
+        <v>-0.3707903866088169</v>
       </c>
       <c r="H9" t="n">
-        <v>-6.440891852963186</v>
+        <v>4.947653685622434</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.02019099792724464</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02395463209028495</v>
+        <v>0.02243065816861043</v>
       </c>
       <c r="H10" t="n">
-        <v>18.64015922641379</v>
+        <v>11.09237022080871</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>0.02269447604523495</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02931545404525104</v>
+        <v>0.04045800286561223</v>
       </c>
       <c r="H11" t="n">
-        <v>29.1744034399343</v>
+        <v>78.27246941048899</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.2217475509599964</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2204183511378918</v>
+        <v>0.2171903122419736</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.5994202940912747</v>
+        <v>-2.055147260158437</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.2252068013777494</v>
       </c>
       <c r="G13" t="n">
-        <v>0.22556132719656</v>
+        <v>0.2286198763218104</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1574223409957922</v>
+        <v>1.515529248309028</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.0421051027109104</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.0445678010682216</v>
+        <v>-0.0423543248488569</v>
       </c>
       <c r="H14" t="n">
-        <v>5.848930886643008</v>
+        <v>-0.5919048331448972</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.0476962964829882</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.0492847722288187</v>
+        <v>-0.0453565555941181</v>
       </c>
       <c r="H15" t="n">
-        <v>3.330396410121824</v>
+        <v>4.905498039464362</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.2125733987723978</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2108286209978083</v>
+        <v>0.212957049951566</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.8207883887003373</v>
+        <v>0.1804793927103588</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.220547964401221</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2289893659998723</v>
+        <v>0.2195398528038392</v>
       </c>
       <c r="H17" t="n">
-        <v>3.827467472469924</v>
+        <v>-0.4570940385320715</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.0730202405914521</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07857453732052486</v>
+        <v>0.08065590735726356</v>
       </c>
       <c r="H18" t="n">
-        <v>7.606516609756225</v>
+        <v>10.45691811470875</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.07533801278860332</v>
       </c>
       <c r="G19" t="n">
-        <v>0.07995394956820318</v>
+        <v>0.07731856556847012</v>
       </c>
       <c r="H19" t="n">
-        <v>6.126969120558127</v>
+        <v>2.628889064839274</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>-0.07498197610986357</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.07905898105727599</v>
+        <v>-0.08130991902103457</v>
       </c>
       <c r="H20" t="n">
-        <v>5.437313283713402</v>
+        <v>-8.439285331583291</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>-0.08656883138589506</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.08140221187931915</v>
+        <v>-0.08667399836390689</v>
       </c>
       <c r="H21" t="n">
-        <v>-5.968221383912237</v>
+        <v>-0.1214836521738738</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.07350189683413895</v>
       </c>
       <c r="G22" t="n">
-        <v>0.07137389590184935</v>
+        <v>0.06117531173446256</v>
       </c>
       <c r="H22" t="n">
-        <v>-2.895164647371684</v>
+        <v>-16.77043128219126</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.06833131635347874</v>
       </c>
       <c r="G23" t="n">
-        <v>0.07464537340426715</v>
+        <v>0.07547849250595139</v>
       </c>
       <c r="H23" t="n">
-        <v>9.240356234505594</v>
+        <v>10.45959090777678</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.0666121311904289</v>
       </c>
       <c r="G24" t="n">
-        <v>0.05717081262203941</v>
+        <v>0.05919867730843299</v>
       </c>
       <c r="H24" t="n">
-        <v>-14.17357229030687</v>
+        <v>-11.12928493580626</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.05478005394628295</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06441932984013649</v>
+        <v>0.07076908915051398</v>
       </c>
       <c r="H25" t="n">
-        <v>17.5963242082707</v>
+        <v>29.18769525110326</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.119349034221139</v>
       </c>
       <c r="G26" t="n">
-        <v>0.125652209687609</v>
+        <v>0.1188644250137464</v>
       </c>
       <c r="H26" t="n">
-        <v>5.281295745377382</v>
+        <v>-0.4060436773159631</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.1138601832942567</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1280709480262998</v>
+        <v>0.1147161213579321</v>
       </c>
       <c r="H27" t="n">
-        <v>12.48089044026677</v>
+        <v>0.7517448496137927</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.1292533789032894</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1357869081713937</v>
+        <v>0.1334537448415444</v>
       </c>
       <c r="H28" t="n">
-        <v>5.054822801184059</v>
+        <v>3.24971461008987</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.1508404131181501</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1476691973936122</v>
+        <v>0.1493048118165373</v>
       </c>
       <c r="H29" t="n">
-        <v>-2.102364783404538</v>
+        <v>-1.018030426905561</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.08430730692358705</v>
       </c>
       <c r="G30" t="n">
-        <v>0.08165623291072535</v>
+        <v>0.08660190648115718</v>
       </c>
       <c r="H30" t="n">
-        <v>-3.144536469732729</v>
+        <v>2.721708996884293</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.08168804472812186</v>
       </c>
       <c r="G31" t="n">
-        <v>0.08283566660767609</v>
+        <v>0.08422565800560795</v>
       </c>
       <c r="H31" t="n">
-        <v>1.404883521663185</v>
+        <v>3.106468377266105</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.05335989709435844</v>
       </c>
       <c r="G32" t="n">
-        <v>0.05298949340889238</v>
+        <v>0.0578300106329763</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.6941611690349861</v>
+        <v>8.377290403527534</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.05524291083483257</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05597437526346553</v>
+        <v>0.05327228878183658</v>
       </c>
       <c r="H33" t="n">
-        <v>1.32408741244631</v>
+        <v>-3.567194456656766</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.01735724411428837</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01145792361410902</v>
+        <v>0.01685976678628124</v>
       </c>
       <c r="H34" t="n">
-        <v>-33.98765645822235</v>
+        <v>-2.866107803355784</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.01690068813636874</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02074839777440708</v>
+        <v>0.01476290257631001</v>
       </c>
       <c r="H35" t="n">
-        <v>22.76658563835882</v>
+        <v>-12.64910365074669</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>-0.02904570050041436</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.03247063063451072</v>
+        <v>-0.02658450229724496</v>
       </c>
       <c r="H36" t="n">
-        <v>11.79152189511664</v>
+        <v>8.473537083859583</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>-0.03326387867410367</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.02844903221597741</v>
+        <v>-0.02339515210720308</v>
       </c>
       <c r="H37" t="n">
-        <v>-14.47469943387774</v>
+        <v>29.66799711960084</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.07828272299359128</v>
       </c>
       <c r="G38" t="n">
-        <v>0.08870841493554031</v>
+        <v>0.07651656826372312</v>
       </c>
       <c r="H38" t="n">
-        <v>13.31799858674122</v>
+        <v>-2.256123270025682</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.07774513092769705</v>
       </c>
       <c r="G39" t="n">
-        <v>0.08258565308430391</v>
+        <v>0.07566226998961434</v>
       </c>
       <c r="H39" t="n">
-        <v>6.226141880330148</v>
+        <v>-2.679088597869588</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.06620903162762284</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06782259637626618</v>
+        <v>0.06778841244179645</v>
       </c>
       <c r="H40" t="n">
-        <v>2.437076496932406</v>
+        <v>2.385446177579617</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.06502283945517741</v>
       </c>
       <c r="G41" t="n">
-        <v>0.065668960656854</v>
+        <v>0.07014672341214186</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9936834612120965</v>
+        <v>7.880129505104935</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.07779129312774727</v>
       </c>
       <c r="G42" t="n">
-        <v>0.089872650786468</v>
+        <v>0.08097719768867399</v>
       </c>
       <c r="H42" t="n">
-        <v>15.53047542079159</v>
+        <v>4.095451345300171</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.08016449204640863</v>
       </c>
       <c r="G43" t="n">
-        <v>0.08048946057481854</v>
+        <v>0.08002140611715626</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4053771440624585</v>
+        <v>-0.1784904084086701</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.0882473020929648</v>
       </c>
       <c r="G44" t="n">
-        <v>0.07982164240733294</v>
+        <v>0.07881683934424609</v>
       </c>
       <c r="H44" t="n">
-        <v>-9.547781615754987</v>
+        <v>-10.6864034650987</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.09038350561601033</v>
       </c>
       <c r="G45" t="n">
-        <v>0.09180573594344242</v>
+        <v>0.08983344264494685</v>
       </c>
       <c r="H45" t="n">
-        <v>1.573550746608971</v>
+        <v>-0.6085877808285041</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>-0.002736221431388826</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.0003471210783854994</v>
+        <v>0.01192697999351138</v>
       </c>
       <c r="H46" t="n">
-        <v>-87.31385280432839</v>
+        <v>535.8923534729275</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>-4.777339627826626e-05</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0005765980312311007</v>
+        <v>-0.0006092236977627549</v>
       </c>
       <c r="H47" t="n">
-        <v>-1306.943772371935</v>
+        <v>-1175.236313981536</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>-0.09610514426044459</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.09889443508593077</v>
+        <v>-0.09717906322142596</v>
       </c>
       <c r="H48" t="n">
-        <v>2.902332489015584</v>
+        <v>-1.117441703298478</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.1095762031015</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.109230569569803</v>
+        <v>-0.1007602460744671</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.3154275489695923</v>
+        <v>8.045503291318386</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.170499290945181</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1720463602442157</v>
+        <v>0.1710738953855934</v>
       </c>
       <c r="H50" t="n">
-        <v>0.9073757963792003</v>
+        <v>0.3370128035295785</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.1698348686233734</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1711921806503309</v>
+        <v>0.1739833048481258</v>
       </c>
       <c r="H51" t="n">
-        <v>0.7991951464145285</v>
+        <v>2.442629277708561</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.07096188459140108</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06077831638269839</v>
+        <v>0.06452388715755088</v>
       </c>
       <c r="H52" t="n">
-        <v>-14.35075782913564</v>
+        <v>-9.072472456051909</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.06431610809503106</v>
       </c>
       <c r="G53" t="n">
-        <v>0.06190969719047148</v>
+        <v>0.06618202438924688</v>
       </c>
       <c r="H53" t="n">
-        <v>-3.741536880627109</v>
+        <v>2.901164808447063</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>-0.127802855650489</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1293118151246449</v>
+        <v>-0.1318780570844196</v>
       </c>
       <c r="H54" t="n">
-        <v>1.180693081133152</v>
+        <v>-3.188662266730049</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>-0.1164711675885664</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1323263999079419</v>
+        <v>-0.1342217989502003</v>
       </c>
       <c r="H55" t="n">
-        <v>13.61301053955602</v>
+        <v>-15.24036525875476</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.1900208351250397</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1897406813159299</v>
+        <v>0.1893462526135997</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.1474332059036906</v>
+        <v>-0.3550044977942086</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.1989082743606582</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1952009733879776</v>
+        <v>0.195815146103937</v>
       </c>
       <c r="H57" t="n">
-        <v>-1.863824410822932</v>
+        <v>-1.555052582233344</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>

--- a/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 250/S&P500_returns_compared_semester.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 250/S&P500_returns_compared_semester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.06475160574547126</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06981456006938053</v>
+        <v>0.06224091725287884</v>
       </c>
       <c r="H2" t="n">
-        <v>7.819040571458529</v>
+        <v>-3.877415028843533</v>
       </c>
       <c r="I2" t="n">
-        <v>-8.241209273008328</v>
+        <v>222.2636742179514</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.06840507148266159</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07418709268332681</v>
+        <v>0.0757114981186691</v>
       </c>
       <c r="H3" t="n">
-        <v>8.45262065420218</v>
+        <v>10.68111834055966</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.04489303740573931</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.03662410462721217</v>
+        <v>-0.03325172432826021</v>
       </c>
       <c r="H4" t="n">
-        <v>18.41918759872105</v>
+        <v>25.93122174440089</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.02707184252639069</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.02827920324327398</v>
+        <v>-0.02159632838261233</v>
       </c>
       <c r="H5" t="n">
-        <v>-4.459839464958129</v>
+        <v>20.22586434019264</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.1060411983308413</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.09375036274816409</v>
+        <v>-0.1083859720864143</v>
       </c>
       <c r="H6" t="n">
-        <v>11.59062305607925</v>
+        <v>-2.211191303456858</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.09137116790774705</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.0905156173356471</v>
+        <v>-0.09113813621269763</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9363463242187672</v>
+        <v>0.2550385426666495</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.3669045294234091</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3522130331728875</v>
+        <v>-0.3624880555821954</v>
       </c>
       <c r="H8" t="n">
-        <v>4.004174130422792</v>
+        <v>1.203711997819769</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.3900907247280979</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3707903866088169</v>
+        <v>-0.3860728810120887</v>
       </c>
       <c r="H9" t="n">
-        <v>4.947653685622434</v>
+        <v>1.029976736516805</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.02019099792724464</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02243065816861043</v>
+        <v>0.01996457991918173</v>
       </c>
       <c r="H10" t="n">
-        <v>11.09237022080871</v>
+        <v>-1.121380968284853</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>0.02269447604523495</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04045800286561223</v>
+        <v>0.02726826057822341</v>
       </c>
       <c r="H11" t="n">
-        <v>78.27246941048899</v>
+        <v>20.15373487306747</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.2217475509599964</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2171903122419736</v>
+        <v>0.2123672471662505</v>
       </c>
       <c r="H12" t="n">
-        <v>-2.055147260158437</v>
+        <v>-4.23017244300395</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.2252068013777494</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2286198763218104</v>
+        <v>0.2280844804021571</v>
       </c>
       <c r="H13" t="n">
-        <v>1.515529248309028</v>
+        <v>1.277794012793083</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.0421051027109104</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.0423543248488569</v>
+        <v>-0.04974051409339369</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.5919048331448972</v>
+        <v>-18.13417113575828</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.0476962964829882</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.0453565555941181</v>
+        <v>-0.04849114657065651</v>
       </c>
       <c r="H15" t="n">
-        <v>4.905498039464362</v>
+        <v>-1.666481773803567</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.2125733987723978</v>
       </c>
       <c r="G16" t="n">
-        <v>0.212957049951566</v>
+        <v>0.2117606893631132</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1804793927103588</v>
+        <v>-0.3823194313013588</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.220547964401221</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2195398528038392</v>
+        <v>0.2223837316021025</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.4570940385320715</v>
+        <v>0.8323664223632846</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.0730202405914521</v>
       </c>
       <c r="G18" t="n">
-        <v>0.08065590735726356</v>
+        <v>0.07487194779065426</v>
       </c>
       <c r="H18" t="n">
-        <v>10.45691811470875</v>
+        <v>2.535882084479091</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.07533801278860332</v>
       </c>
       <c r="G19" t="n">
-        <v>0.07731856556847012</v>
+        <v>0.07362470182070974</v>
       </c>
       <c r="H19" t="n">
-        <v>2.628889064839274</v>
+        <v>-2.274165330987812</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>-0.07498197610986357</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.08130991902103457</v>
+        <v>-0.08492938609975433</v>
       </c>
       <c r="H20" t="n">
-        <v>-8.439285331583291</v>
+        <v>-13.26640148202525</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>-0.08656883138589506</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.08667399836390689</v>
+        <v>-0.07978073040038806</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.1214836521738738</v>
+        <v>7.841275984479799</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.07350189683413895</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06117531173446256</v>
+        <v>0.07723222572854922</v>
       </c>
       <c r="H22" t="n">
-        <v>-16.77043128219126</v>
+        <v>5.075146431700891</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.06833131635347874</v>
       </c>
       <c r="G23" t="n">
-        <v>0.07547849250595139</v>
+        <v>0.07415785074534212</v>
       </c>
       <c r="H23" t="n">
-        <v>10.45959090777678</v>
+        <v>8.526887381654774</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.0666121311904289</v>
       </c>
       <c r="G24" t="n">
-        <v>0.05919867730843299</v>
+        <v>0.06054380588139363</v>
       </c>
       <c r="H24" t="n">
-        <v>-11.12928493580626</v>
+        <v>-9.109940187452208</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.05478005394628295</v>
       </c>
       <c r="G25" t="n">
-        <v>0.07076908915051398</v>
+        <v>0.06998761401182149</v>
       </c>
       <c r="H25" t="n">
-        <v>29.18769525110326</v>
+        <v>27.76112648675191</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.119349034221139</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1188644250137464</v>
+        <v>0.1139806638290622</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.4060436773159631</v>
+        <v>-4.498042591722923</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.1138601832942567</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1147161213579321</v>
+        <v>0.1182927581574682</v>
       </c>
       <c r="H27" t="n">
-        <v>0.7517448496137927</v>
+        <v>3.892998179843158</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.1292533789032894</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1334537448415444</v>
+        <v>0.1311033994688534</v>
       </c>
       <c r="H28" t="n">
-        <v>3.24971461008987</v>
+        <v>1.431313116346654</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.1508404131181501</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1493048118165373</v>
+        <v>0.1387189121307623</v>
       </c>
       <c r="H29" t="n">
-        <v>-1.018030426905561</v>
+        <v>-8.035977054699064</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.08430730692358705</v>
       </c>
       <c r="G30" t="n">
-        <v>0.08660190648115718</v>
+        <v>0.08656343611097742</v>
       </c>
       <c r="H30" t="n">
-        <v>2.721708996884293</v>
+        <v>2.676077874762662</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.08168804472812186</v>
       </c>
       <c r="G31" t="n">
-        <v>0.08422565800560795</v>
+        <v>0.0911034209695494</v>
       </c>
       <c r="H31" t="n">
-        <v>3.106468377266105</v>
+        <v>11.52601494228961</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.05335989709435844</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0578300106329763</v>
+        <v>0.05539078954472102</v>
       </c>
       <c r="H32" t="n">
-        <v>8.377290403527534</v>
+        <v>3.806027674249955</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.05524291083483257</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05327228878183658</v>
+        <v>0.05680614817648612</v>
       </c>
       <c r="H33" t="n">
-        <v>-3.567194456656766</v>
+        <v>2.82975194107236</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.01735724411428837</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01685976678628124</v>
+        <v>0.01512511749045012</v>
       </c>
       <c r="H34" t="n">
-        <v>-2.866107803355784</v>
+        <v>-12.85991375785732</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.01690068813636874</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01476290257631001</v>
+        <v>0.01891392993710746</v>
       </c>
       <c r="H35" t="n">
-        <v>-12.64910365074669</v>
+        <v>11.9121883351389</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>-0.02904570050041436</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.02658450229724496</v>
+        <v>-0.02965581390376378</v>
       </c>
       <c r="H36" t="n">
-        <v>8.473537083859583</v>
+        <v>-2.100529141449747</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>-0.03326387867410367</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.02339515210720308</v>
+        <v>-0.02463890391516297</v>
       </c>
       <c r="H37" t="n">
-        <v>29.66799711960084</v>
+        <v>25.92895087022834</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.07828272299359128</v>
       </c>
       <c r="G38" t="n">
-        <v>0.07651656826372312</v>
+        <v>0.08404500693154533</v>
       </c>
       <c r="H38" t="n">
-        <v>-2.256123270025682</v>
+        <v>7.360862930669635</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.07774513092769705</v>
       </c>
       <c r="G39" t="n">
-        <v>0.07566226998961434</v>
+        <v>0.07327633957935985</v>
       </c>
       <c r="H39" t="n">
-        <v>-2.679088597869588</v>
+        <v>-5.748001572591319</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.06620903162762284</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06778841244179645</v>
+        <v>0.06868150554948413</v>
       </c>
       <c r="H40" t="n">
-        <v>2.385446177579617</v>
+        <v>3.734345392282935</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.06502283945517741</v>
       </c>
       <c r="G41" t="n">
-        <v>0.07014672341214186</v>
+        <v>0.07475740134099189</v>
       </c>
       <c r="H41" t="n">
-        <v>7.880129505104935</v>
+        <v>14.97098860551124</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.07779129312774727</v>
       </c>
       <c r="G42" t="n">
-        <v>0.08097719768867399</v>
+        <v>0.07732335203782546</v>
       </c>
       <c r="H42" t="n">
-        <v>4.095451345300171</v>
+        <v>-0.6015340163498276</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.08016449204640863</v>
       </c>
       <c r="G43" t="n">
-        <v>0.08002140611715626</v>
+        <v>0.09408946455477447</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.1784904084086701</v>
+        <v>17.37049927329974</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.0882473020929648</v>
       </c>
       <c r="G44" t="n">
-        <v>0.07881683934424609</v>
+        <v>0.08944399182462591</v>
       </c>
       <c r="H44" t="n">
-        <v>-10.6864034650987</v>
+        <v>1.356063815299923</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.09038350561601033</v>
       </c>
       <c r="G45" t="n">
-        <v>0.08983344264494685</v>
+        <v>0.08414275987911836</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.6085877808285041</v>
+        <v>-6.904739636240109</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>-0.002736221431388826</v>
       </c>
       <c r="G46" t="n">
-        <v>0.01192697999351138</v>
+        <v>0.002899601702761789</v>
       </c>
       <c r="H46" t="n">
-        <v>535.8923534729275</v>
+        <v>205.9710178971165</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>-4.777339627826626e-05</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.0006092236977627549</v>
+        <v>0.005738710367670439</v>
       </c>
       <c r="H47" t="n">
-        <v>-1175.236313981536</v>
+        <v>12112.35586066376</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>-0.09610514426044459</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.09717906322142596</v>
+        <v>-0.1038631224974459</v>
       </c>
       <c r="H48" t="n">
-        <v>-1.117441703298478</v>
+        <v>-8.072386027512978</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.1095762031015</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.1007602460744671</v>
+        <v>-0.1057895793805522</v>
       </c>
       <c r="H49" t="n">
-        <v>8.045503291318386</v>
+        <v>3.45569896909119</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.170499290945181</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1710738953855934</v>
+        <v>0.1636766468100906</v>
       </c>
       <c r="H50" t="n">
-        <v>0.3370128035295785</v>
+        <v>-4.001567453605435</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.1698348686233734</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1739833048481258</v>
+        <v>0.171575586710011</v>
       </c>
       <c r="H51" t="n">
-        <v>2.442629277708561</v>
+        <v>1.024947409649907</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.07096188459140108</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06452388715755088</v>
+        <v>0.06081105279337013</v>
       </c>
       <c r="H52" t="n">
-        <v>-9.072472456051909</v>
+        <v>-14.30462544291136</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.06431610809503106</v>
       </c>
       <c r="G53" t="n">
-        <v>0.06618202438924688</v>
+        <v>0.06910153735101483</v>
       </c>
       <c r="H53" t="n">
-        <v>2.901164808447063</v>
+        <v>7.440483259517194</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>-0.127802855650489</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1318780570844196</v>
+        <v>-0.1339093449465831</v>
       </c>
       <c r="H54" t="n">
-        <v>-3.188662266730049</v>
+        <v>-4.778053874472053</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>-0.1164711675885664</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1342217989502003</v>
+        <v>-0.1147886650882252</v>
       </c>
       <c r="H55" t="n">
-        <v>-15.24036525875476</v>
+        <v>1.444565668204366</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.1900208351250397</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1893462526135997</v>
+        <v>0.1875715094621933</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.3550044977942086</v>
+        <v>-1.288977422520355</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,14 +2318,14 @@
         <v>0.1989082743606582</v>
       </c>
       <c r="G57" t="n">
-        <v>0.195815146103937</v>
+        <v>0.2037098029156213</v>
       </c>
       <c r="H57" t="n">
-        <v>-1.555052582233344</v>
+        <v>2.413941084349778</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>